--- a/Оценки.xlsx
+++ b/Оценки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kissa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kissa\Documents\GitHub\Labitint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D71565A-8989-42CD-B212-E98A0510B077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8C0E5D-BFF6-44C3-B5E5-5B8EB297B5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,7 +646,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>31.5</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="str">
@@ -870,7 +870,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-31.5</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="str">
@@ -907,7 +907,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="str">
@@ -944,7 +944,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="str">
@@ -981,7 +981,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>-10.5</v>
+        <v>-21</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="str">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1" t="str">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C12" s="1">
         <f>SUM(C2:C11)</f>
-        <v>52</v>
+        <v>-2</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1142,7 +1142,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="8">
         <f>IF(C12="",0,C12)*3+IF(E12="",0,E12)*2+IF(G12="",0,G12)*5+IF(I12="",0,I12)*5+IF(K12="",0,K12)*7</f>
-        <v>156</v>
+        <v>-6</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
